--- a/Documentacion/Requerimientos/Toma de requerimientos V2.1.xlsx
+++ b/Documentacion/Requerimientos/Toma de requerimientos V2.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Repositorios\Comunidad-Fe\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Repositorios\Comunidad-Fe\Documentacion\Requerimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511D0BA1-6460-40A0-8D53-3E0C6849AA00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36036700-AAB3-4E58-91BD-227C0EF8DB10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{40FD4F4A-4113-4C87-BB9F-4DDA014B936E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="82">
   <si>
     <t>COMUNIDAD FE</t>
   </si>
@@ -273,6 +273,12 @@
   </si>
   <si>
     <t>RF033</t>
+  </si>
+  <si>
+    <t>RF034</t>
+  </si>
+  <si>
+    <t>El sistema movil debe permitir subir foto del docoumento de la cedula o del registro de la camara de comercio para los emprendedores registrar su razón social así mismo registrando el numero de nit o cedula</t>
   </si>
 </sst>
 </file>
@@ -389,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -397,9 +403,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -460,10 +463,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEEE535-0407-423E-829D-31DDA15FF551}">
   <dimension ref="B2:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,466 +804,466 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="H4" s="5" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="H4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H6" s="24"/>
+      <c r="H6" s="23"/>
       <c r="I6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H7" s="26"/>
+      <c r="H7" s="25"/>
       <c r="I7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H8" s="12"/>
+      <c r="H8" s="11"/>
       <c r="I8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H9" s="6"/>
-      <c r="I9" s="5" t="s">
+      <c r="H9" s="5"/>
+      <c r="I9" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H10" s="17"/>
+      <c r="H10" s="16"/>
       <c r="I10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="24" t="s">
         <v>74</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -1274,7 +1277,7 @@
       </c>
     </row>
     <row r="41" spans="2:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="24" t="s">
         <v>75</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -1288,10 +1291,10 @@
       </c>
     </row>
     <row r="42" spans="2:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -1302,7 +1305,7 @@
       </c>
     </row>
     <row r="43" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="24" t="s">
         <v>77</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1316,10 +1319,10 @@
       </c>
     </row>
     <row r="44" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="26" t="s">
         <v>78</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -1329,11 +1332,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C45" s="4"/>
+    <row r="45" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B45" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C46" s="4"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="51" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>

--- a/Documentacion/Requerimientos/Toma de requerimientos V2.1.xlsx
+++ b/Documentacion/Requerimientos/Toma de requerimientos V2.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Repositorios\Comunidad-Fe\Documentacion\Requerimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36036700-AAB3-4E58-91BD-227C0EF8DB10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378CDA49-20CF-42AB-B57E-009C202EBC7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{40FD4F4A-4113-4C87-BB9F-4DDA014B936E}"/>
   </bookViews>
@@ -128,9 +128,6 @@
     <t>El sistema móvil debe almacenar información personal del usuario al momento de registrarse (Contraseña, nombre, apellido, email, tipo de cliente).</t>
   </si>
   <si>
-    <t>El sistema móvil debe registrar la marca, producto o servicio que ofrece el emprendedor al momento de registrarse, sino es registrado lo anterior no le permite interactuar con el sistema móvil.</t>
-  </si>
-  <si>
     <t>El sistema móvil debe preguntar si es emprendedor o cliente al momento de registrarse.</t>
   </si>
   <si>
@@ -279,6 +276,9 @@
   </si>
   <si>
     <t>El sistema movil debe permitir subir foto del docoumento de la cedula o del registro de la camara de comercio para los emprendedores registrar su razón social así mismo registrando el numero de nit o cedula</t>
+  </si>
+  <si>
+    <t>El sistema móvil debe registrar, producto o servicio que ofrece el emprendedor al momento de registrarse, sino es registrado lo anterior no le permite interactuar con el sistema móvil.</t>
   </si>
 </sst>
 </file>
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEEE535-0407-423E-829D-31DDA15FF551}">
   <dimension ref="B2:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,19 +829,19 @@
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H6" s="23"/>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H7" s="25"/>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H8" s="11"/>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -853,7 +853,7 @@
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H10" s="16"/>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -962,7 +962,7 @@
         <v>28</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>3</v>
@@ -976,7 +976,7 @@
         <v>29</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>3</v>
@@ -990,7 +990,7 @@
         <v>30</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>24</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>3</v>
@@ -1015,10 +1015,10 @@
         <v>25</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>3</v>
@@ -1029,10 +1029,10 @@
         <v>26</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>3</v>
@@ -1043,10 +1043,10 @@
         <v>27</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>3</v>
@@ -1054,13 +1054,13 @@
     </row>
     <row r="25" spans="2:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>35</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>3</v>
@@ -1068,13 +1068,13 @@
     </row>
     <row r="26" spans="2:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>3</v>
@@ -1082,13 +1082,13 @@
     </row>
     <row r="27" spans="2:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>3</v>
@@ -1096,13 +1096,13 @@
     </row>
     <row r="28" spans="2:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>3</v>
@@ -1110,13 +1110,13 @@
     </row>
     <row r="29" spans="2:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>3</v>
@@ -1124,13 +1124,13 @@
     </row>
     <row r="30" spans="2:5" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" s="21" t="s">
         <v>3</v>
@@ -1138,13 +1138,13 @@
     </row>
     <row r="31" spans="2:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>3</v>
@@ -1152,13 +1152,13 @@
     </row>
     <row r="32" spans="2:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>3</v>
@@ -1166,13 +1166,13 @@
     </row>
     <row r="33" spans="2:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E33" s="21" t="s">
         <v>3</v>
@@ -1180,13 +1180,13 @@
     </row>
     <row r="34" spans="2:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E34" s="21" t="s">
         <v>3</v>
@@ -1194,13 +1194,13 @@
     </row>
     <row r="35" spans="2:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E35" s="21" t="s">
         <v>3</v>
@@ -1208,13 +1208,13 @@
     </row>
     <row r="36" spans="2:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E36" s="21" t="s">
         <v>3</v>
@@ -1222,13 +1222,13 @@
     </row>
     <row r="37" spans="2:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E37" s="21" t="s">
         <v>3</v>
@@ -1236,13 +1236,13 @@
     </row>
     <row r="38" spans="2:5" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E38" s="21" t="s">
         <v>3</v>
@@ -1250,13 +1250,13 @@
     </row>
     <row r="39" spans="2:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E39" s="21" t="s">
         <v>3</v>
@@ -1264,13 +1264,13 @@
     </row>
     <row r="40" spans="2:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>3</v>
@@ -1278,13 +1278,13 @@
     </row>
     <row r="41" spans="2:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>3</v>
@@ -1292,13 +1292,13 @@
     </row>
     <row r="42" spans="2:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>3</v>
@@ -1306,13 +1306,13 @@
     </row>
     <row r="43" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B43" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>3</v>
@@ -1320,13 +1320,13 @@
     </row>
     <row r="44" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>3</v>
@@ -1334,13 +1334,13 @@
     </row>
     <row r="45" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B45" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>3</v>
